--- a/adattáblák.xlsx
+++ b/adattáblák.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24923"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A1779AD-A938-4674-99F1-10FE09D83F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0EE51B5-58E7-4355-B5C6-FC9A8C7C03BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,12 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="82">
-  <si>
-    <t>Regisztráció 1.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="83">
   <si>
     <t>gazdijelöltek és menhelyek együtt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regisztráció </t>
   </si>
   <si>
     <t>oszlop neve</t>
@@ -263,6 +263,9 @@
   </si>
   <si>
     <t>táblajogok</t>
+  </si>
+  <si>
+    <t>hírek</t>
   </si>
   <si>
     <t>username F8 mezőnek mi az értéke, ha lehet betű és szám is?</t>
@@ -913,10 +916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:L34"/>
+  <dimension ref="B1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37:C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.85546875" defaultRowHeight="11.25"/>
@@ -934,10 +937,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12">
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="2:12">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1391,30 +1396,6 @@
       <c r="D28" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="29" spans="2:12">
       <c r="B29" s="22" t="s">
@@ -1426,14 +1407,6 @@
       <c r="D29" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
     </row>
     <row r="32" spans="2:12">
       <c r="B32" s="1" t="s">
@@ -1465,6 +1438,21 @@
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="23" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1490,7 +1478,7 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="16.5">
@@ -1498,17 +1486,17 @@
     </row>
     <row r="5" spans="1:1" ht="16.5">
       <c r="A5" s="12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="16.5">
       <c r="A6" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="16.5">
       <c r="A7" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="16.5">
